--- a/docs/5u24/doc/_downloads/nablarch5u11-releasenote.xlsx
+++ b/docs/5u24/doc/_downloads/nablarch5u11-releasenote.xlsx
@@ -1,80 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0956E96-7761-43B9-9EA1-BC62A8FF08BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="20415" windowHeight="7515" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u11" sheetId="2" r:id="rId2"/>
-    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId3"/>
+    <sheet name="5u11" sheetId="2" r:id="rId1"/>
+    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u11'!$A$4:$N$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u11'!$A$1:$N$49</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">バージョンアップ手順!$A$1:$C$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u11'!$4:$5</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u11'!$A$1:$N$43</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u11'!$A$1:$L$43</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u11'!$C$6:$L$43</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u11'!$A$1:$N$43</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$E$1:$E$43</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$E$1:$E$43</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u11'!$A$1:$N$43</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$E$1:$E$43</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$E$1:$E$43</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u11'!$A$1:$N$43</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u11'!$C$6:$L$43</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u11'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u11'!$A$6:$N$43</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u11'!$A$1:$N$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">バージョンアップ手順!$A$1:$C$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u11'!$4:$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="308">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="240">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -83,237 +44,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>リリース
@@ -321,14 +66,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -338,15 +83,15 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
@@ -359,7 +104,7 @@
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アダプタ</t>
@@ -370,21 +115,21 @@
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ワークフローライブラリ</t>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>Nablarch開発標準</t>
@@ -394,23 +139,23 @@
     <rPh sb="10" eb="12">
       <t>ヒョウジュン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーション開発標準</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Example</t>
@@ -418,11 +163,11 @@
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -433,13 +178,13 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>不具合の
 起因バージョン
 （※2）</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>FBシステム
@@ -448,37 +193,37 @@
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>不具合</t>
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u10からの変更点を記載しています。</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>■Nablarch 5u11 リリースノート</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>公開APIを追加</t>
@@ -488,15 +233,15 @@
     <rPh sb="6" eb="8">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-159</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-158</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>HttpSessionのinvalidate時に発生する例外の扱いを見直し</t>
@@ -515,16 +260,16 @@
     <rPh sb="34" eb="36">
       <t>ミナオ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JIRA issue
 (※5)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-157</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>batch-eeのChunkが特定のDBで利用できない問題を修正</t>
@@ -540,14 +285,14 @@
     <rPh sb="30" eb="32">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>全体</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarch5に対応していないことを明記</t>
@@ -557,15 +302,15 @@
     <rPh sb="20" eb="22">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-162</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>システムへの
@@ -577,7 +322,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -593,15 +338,15 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データベースを使用するクラスのテスト</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>テストデータとして記述できる型の制約を追記</t>
@@ -617,24 +362,24 @@
     <rPh sb="19" eb="21">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-160</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0(5u6)
 1.0.0(5u6)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.4.2</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:バッチアプリケーション編:JSR352に準拠したバッチアプリケーション:機能詳細:データベースを入力とするChunkステップ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ジョブ、ステップの一時領域の注意点を追記</t>
@@ -653,22 +398,22 @@
     <rPh sb="18" eb="20">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-161</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Javaコーディング規約</t>
     <rPh sb="10" eb="12">
       <t>キヤク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>F-FMT-e05のコード例の誤りを修正</t>
@@ -681,45 +426,45 @@
     <rPh sb="18" eb="20">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ファイルアップロード</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>不具合</t>
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.4.2</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-167</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メール送信</t>
     <rPh sb="3" eb="5">
       <t>ソウシン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>メール送信要求時のトランザクションを分離できる機能を追加</t>
@@ -741,7 +486,7 @@
     <rPh sb="26" eb="28">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>MailRequesterに、メール送信要求用のトランザクションを指定できる機能を追加しました。</t>
@@ -763,15 +508,15 @@
     <rPh sb="41" eb="43">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-mail-sender 1.3.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-165</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>リダイレクト時にステータスコードが必ず302になる不具合を修正</t>
@@ -787,7 +532,7 @@
     <rPh sb="29" eb="31">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>リダイレクト時に、301や303のステータスコードを指定しても、クライアントに302が返されてしまう不具合を修正しました。</t>
@@ -806,15 +551,15 @@
     <rPh sb="54" eb="56">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク :ウェブアプリケーション編:機能詳細:ステータスコード</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>リクエスト単体テストで、リダイレクト時のステータスコードが正しくアサートされない不具合を修正</t>
@@ -833,7 +578,7 @@
     <rPh sb="44" eb="46">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ステータスコードの302と303を区別していなかった不具合を修正しました。
@@ -862,15 +607,15 @@
     <rPh sb="75" eb="77">
       <t>セイコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-168</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-171</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>100系のステータスコードの扱いを修正</t>
@@ -883,34 +628,34 @@
     <rPh sb="17" eb="19">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-170</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSR310アダプタ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSR310アダプタを追加</t>
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarchアプリケーションフレームワーク:アダプタ:JSR310(Date and Time API)アダプタ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-176</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ウェブアプリケーションで使用するハンドラにサービス提供可否チェックが漏れていたため追記しました。</t>
@@ -920,27 +665,27 @@
     <rPh sb="41" eb="43">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u6</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-178</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:ウェブアプリケーション編:アーキテクチャ概要:ウェブアプリケーションで使用するハンドラ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ETL</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗ログの改善を実施</t>
@@ -953,7 +698,7 @@
     <rPh sb="8" eb="10">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗ログの開始ポイントについての注意点を追記</t>
@@ -972,7 +717,7 @@
     <rPh sb="20" eb="22">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗ログの開始ポイントの後にカーソルを開く等の重い処理を行うと、進捗ログのTPSに実際よりも小さい値が出力されてしまうことを注意点として追記しました。</t>
@@ -1021,15 +766,15 @@
     <rPh sb="68" eb="70">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-177</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>batch-eeの進捗ログで、これまでは全体のTPSしか出力していませんでしたが、最新のTPSも出力するように変更しました。</t>
@@ -1051,7 +796,7 @@
     <rPh sb="55" eb="57">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗ログに出力する内容を変更</t>
@@ -1067,15 +812,15 @@
     <rPh sb="12" eb="14">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-batch-ee 1.3.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>進捗ログに出力する全体のTPSのキーワードが、"tps"から"total tps"に変更になりました。</t>
@@ -1091,15 +836,15 @@
     <rPh sb="42" eb="44">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-177</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Domaアダプタ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>domaとNablarchのデータベースアクセス機能を併用できる機能を追加</t>
@@ -1115,23 +860,23 @@
     <rPh sb="35" eb="37">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-doma-adaptor 1.1.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarchアプリケーションフレームワーク:アダプタ:Domaアダプタ:DomaとNablarchのデータベースアクセスを併用する</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-174</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データバインド</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>固定長データの入出力機能を追加</t>
@@ -1147,7 +892,7 @@
     <rPh sb="13" eb="15">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データバインドに、固定長データの入出力機能を追加しました。</t>
@@ -1163,19 +908,19 @@
     <rPh sb="22" eb="24">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-common-databind 1.2.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>HTTPメッセージング</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-179</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>各リスナからContextを取得できるように変更</t>
@@ -1188,7 +933,7 @@
     <rPh sb="22" eb="24">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>各リスナから、JobContext、StepContextを取得できるようにしました。</t>
@@ -1198,33 +943,33 @@
     <rPh sb="30" eb="32">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-batch-ee 1.3.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-180</t>
   </si>
   <si>
     <t>ウェブアプリケーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSR352に準拠したバッチアプリケーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>エラー発生時の仕組みについて追記</t>
@@ -1240,7 +985,7 @@
     <rPh sb="14" eb="16">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSR352に準拠したバッチアプリケーションの例外発生時の処理の流れやログ出力の仕組みについて追記しました。</t>
@@ -1268,23 +1013,23 @@
     <rPh sb="47" eb="49">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-181</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-182</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>カスタムタグ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>静的コンテンツのバージョン管理の仕組みを非推奨に変更</t>
@@ -1306,11 +1051,11 @@
     <rPh sb="24" eb="26">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>「static_content_version」を使用した静的コンテンツのバージョン管理の仕組みについて、全アプリケーションで1つのバージョンしか指定できない問題があるため、非推奨であることを解説書に追記しました。</t>
@@ -1347,19 +1092,19 @@
     <rPh sb="100" eb="102">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-183</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ツール</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ワークフロー</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ステートマシン機能を追加</t>
@@ -1369,15 +1114,15 @@
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarch拡張コンポーネント:ワークフローライブラリ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-166</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>BPMNからステートマシン定義を出力する機能を追加</t>
@@ -1393,22 +1138,22 @@
     <rPh sb="23" eb="25">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarch拡張コンポーネント:ワークフロー定義データ生成ツール</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Mavenプラグインに変更</t>
     <rPh sb="11" eb="13">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.1.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ステートマシンとして利用できることを解説書に追記しました。</t>
@@ -1421,15 +1166,15 @@
     <rPh sb="22" eb="24">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データバインド</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>CSVデータとMapとの変換時にヘッダが必須となっていた制約を削除</t>
@@ -1445,36 +1190,36 @@
     <rPh sb="31" eb="33">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-187</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:様々なフォーマットのデータへのアクセス:データバインド</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-batch-ee 1.3.0
 nablarch-fw-standalone 1.2.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-188</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:バッチアプリケーション編:JSR352に準拠したバッチアプリケーション:機能詳細:JSR352バッチアプリケーションの起動</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-186</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ワークフロー設計ガイドを削除</t>
@@ -1484,33 +1229,33 @@
     <rPh sb="12" eb="14">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">NAB-164
 NAB-190
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>固定長データの入出力機能のExample</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-example-batch-ee 5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-164</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Exampleアプリケーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ETL</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>解説書の記載内容を全面的に見直し</t>
@@ -1526,15 +1271,15 @@
     <rPh sb="13" eb="15">
       <t>ミナオ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-etl 1.2.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>5u11</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">以下の改善を実施しました。
@@ -1586,15 +1331,15 @@
     <rPh sb="66" eb="68">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarch拡張コンポーネント:ETL</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-189</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>SQL*Loader用の設定方法を変更</t>
@@ -1610,32 +1355,32 @@
     <rPh sb="17" eb="19">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>あり</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarch拡張コンポーネント:ETL:Extractフェーズ(SQL*Loader版)を使用する</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-191</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-batch-ee 1.3.0
 nablarch-etl 1.2.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-jsr310-adaptor 1.0.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データベースアクセス(JDBCラッパー)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Dialectが使用する型変換を設定で差し替えできるよう変更</t>
@@ -1657,51 +1402,51 @@
     <rPh sb="28" eb="30">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-core-jdbc 1.3.0</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-176</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:データベースアクセス:データベースアクセス(JDBCラッパー):データベースアクセス時に型変換を行う</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-184</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク:Nablarchが提供するライブラリ:JSPカスタムタグ:HTMLエスケープせずに値を出力する</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>ワークフローサンプルアプリケーション</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>NAB-185</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">以下の場合に、テストが落ちるようになるため対応が必要となります。
@@ -1751,7 +1496,7 @@
     <rPh sb="113" eb="115">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>HttpCharacterEncodingHandlerでファイルアップロード時のヘッダーの解析処理を修正</t>
@@ -1767,7 +1512,7 @@
     <rPh sb="51" eb="53">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">既に無効化したセッションを再度無効にしようとした時に発生するIllegalStateExceptionを抑制するように変更しました。
@@ -1791,12 +1536,12 @@
     <rPh sb="52" eb="54">
       <t>ヨクセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク :バッチアプリケーション編:JSR352に準拠したバッチアプリケーション:機能詳細:進捗状況のログ出力:進捗ログで出力される内容
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">JSR352起動時(nablarch.fw.batch.ee.Mainの実行時)に、コマンドラインオプションが指定できるようになりました。指定したコマンドラインオプションは、JSR352(javax.batch.operations.JobOperator#start)のpropertiesへと引き継がれます。
@@ -1819,7 +1564,7 @@
     <rPh sb="150" eb="151">
       <t>ツ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">HttpSessionを取得する以下のメソッドを公開APIに変更しました。
@@ -1837,7 +1582,7 @@
     <rPh sb="30" eb="32">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションで以下のステータスコードを指定していた場合に、クライアントに正しいステータスコードが戻されるようになります。
@@ -1912,7 +1657,7 @@
     <rPh sb="205" eb="207">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションで使用する以下のクラスを公開APIに追加しました。
@@ -1933,7 +1678,7 @@
     <rPh sb="26" eb="28">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク :Nablarchが提供するライブラリ:メール送信:拡張例:メール送信要求時に利用するトランザクションを指定する
@@ -1944,12 +1689,12 @@
     <rPh sb="44" eb="45">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク:Nablarchが提供するライブラリ:様々なフォーマットのデータへのアクセス:データバインド
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">CSV→Map及びMap→CSV時に、CSVデータにヘッダレコードが必須との制約がありましたが、Beanを使用した場合と同様にヘッダレコードは必要な場合のみ使用できるよう変更しました。
@@ -1987,7 +1732,7 @@
     <rPh sb="85" eb="87">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">ウェブアプリケーションで使用するハンドラの記載漏れを修正
@@ -2004,7 +1749,7 @@
     <rPh sb="26" eb="28">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">JSR352に準拠したバッチについて、JobContext、StepContextの一時領域をアプリケーションでは使用してはならないことを注意点として追記しました。
@@ -2027,18 +1772,18 @@
     <rPh sb="75" eb="77">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">・アプリケーションフレームワーク：バッチアプリケーション編：JSR352に準拠したバッチアプリケーション：機能詳細：進捗状況のログ出力：Batchletステップで進捗ログを出力する
 ・アプリケーションフレームワーク：バッチアプリケーション編：JSR352に準拠したバッチアプリケーション：機能詳細：進捗状況のログ出力：Chunkステップで進捗ログを出力する
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク:バッチアプリケーション編:JSR352に準拠したバッチアプリケーション:アーキテクチャ概要:バッチアプリケーションの処理の流れ:例外(エラー含む)発生時の処理の流れ
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">Java8のJSR310(Date and Time API)を扱うためのアダプタを追加しました。
@@ -2073,7 +1818,7 @@
     <rPh sb="127" eb="128">
       <t>ジ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">domaのトランザクション制御配下で、Nablarchのデータベースアクセス機能が使用できる機能を追加しました。
@@ -2118,7 +1863,7 @@
     <rPh sb="94" eb="96">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">本リリースにて、データバインドに固定長データの入出力機能が追加されたのに伴い、当該機能のExampleを追加しました。
@@ -2141,7 +1886,7 @@
     <rPh sb="52" eb="54">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">ワークフローと同じように、BPMNのバリデーション、およびBPMNからワークフローライブラリ用のステートマシン定義情報を出力する機能を追加しました。
@@ -2167,7 +1912,7 @@
     <rPh sb="67" eb="69">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">ワークフローツールをMavenプラグインに変更しました。
@@ -2189,22 +1934,22 @@
     <rPh sb="62" eb="64">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">Nablarch開発ツール:フロントエンド上級者向けのUI開発基盤:Nablarch UI開発基盤 解説書
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">Nablarch開発ツール:大規模開発向け重厚なテスティングフレームワーク:自動テストフレームワークの使用方法:データベースを使用するクラスのテスト:注意点:Excelファイルに記述できるカラムのデータ型に関する注意点
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク:Nablarchが提供するライブラリ:JSPカスタムタグ:使用方法:静的コンテンツの変更時にクライアント側のキャッシュを参照しないようにする
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">SQL*Loaderのデータベース接続先情報の設定方法を変更する必要があります。
@@ -2249,27 +1994,27 @@
     <rPh sb="138" eb="140">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.4.2</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-fw-messaging-http 1.0.2</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>nablarch-testing 1.1.1</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>JSR352バッチ起動時にproperteisを指定できるように変更</t>
@@ -2282,7 +2027,7 @@
     <rPh sb="32" eb="34">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>content-typeの大文字・小文字を区別していた不具合を修正</t>
@@ -2301,7 +2046,7 @@
     <rPh sb="31" eb="33">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">content-typeを取得する際に大文字・小文字を区別して比較し、「Content-Type」でなければ取得できなかった不具合を修正しました。
@@ -2333,7 +2078,7 @@
     <rPh sb="66" eb="68">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>prettyPrintは利便性が低く設定の誤りの原因となる可能性が高いため非推奨に変更</t>
@@ -2364,7 +2109,7 @@
     <rPh sb="41" eb="43">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">SQL*Loaderが接続するデータベースの接続先情報の設定法を変更しました。既存の設定では、グローバル領域(環境設定ファイル)に接続先情報を定義するため、キー名に制約があるなど利便性が低かったため本対応を実施しました。
@@ -2423,7 +2168,7 @@
     <rPh sb="103" eb="105">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">BPMNのモデリングツールの使用方法を記載した設計ガイドを解説書上から削除しました。
@@ -2474,7 +2219,7 @@
     <rPh sb="129" eb="131">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>Nablarch5対応を実施</t>
@@ -2484,7 +2229,7 @@
     <rPh sb="12" eb="14">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">Nablarch1.4をベースにサンプルアプリケーションが構築されていたため、そのまま利用できないサンプルとなっていました。
@@ -2511,7 +2256,7 @@
     <rPh sb="119" eb="120">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">UI開発基盤はNablarch5に対応していないことを明記しました。
@@ -2528,7 +2273,7 @@
     <rPh sb="27" eb="29">
       <t>メイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>データベースを使用したクラスのテストについて、テストデータとしてExcelに記述できる型の制約について追記しました。</t>
@@ -2547,7 +2292,7 @@
     <rPh sb="51" eb="53">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">100系(100:継続、101:プロトコル切り替えなど)の場合にクライアントにそのステータスコードをエラーコードとして返していましたが、リクエストの処理中を表すステータスはエラーではないため、エラーコードとして返さないよう修正しました。
@@ -2576,7 +2321,7 @@
     <rPh sb="111" eb="113">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">進捗ログの初回のTPS算出時に、カーソルを開くなどの重くなる全体の初期化処理を含めていたため、実際よりも小さい値となっていました。算出処理を見直し、初期化処理を含まないよう改善しました。
@@ -2641,7 +2386,7 @@
     <rPh sb="86" eb="88">
       <t>カイゼン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">PostgreSQLで、DBをインプットとするChunkが利用できない問題に対応しました。
@@ -2668,7 +2413,7 @@
     <rPh sb="81" eb="82">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">HttpCharacterEncodingHandlerをハンドラキューに設定した状態で、glassfish(payara)でファイルアップロードを行うと、必ずbad requestとなる問題がありました。
@@ -2689,11 +2434,11 @@
     <rPh sb="144" eb="146">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0(1.2.1)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">Dialectが使用する型変換処理(AttributeConverter)を差し替えたい場合、Dialect自体を作成し差し替えを行う必要がありました。
@@ -2771,12 +2516,12 @@
     <rPh sb="148" eb="150">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">アプリケーションフレームワーク：バッチアプリケーション編：JSR352に準拠したバッチアプリケーション：アーキテクチャ概要
 </t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">prettyPrintは、サニタイジング対象外のタグと属性を全て列挙する必要があり、設定の誤りの原因となりやすいため非推奨に変更しました。解説書に記載の通り、markdownの検討や、サーバサイドで適切なバリデーションを実施しサニタイジングせずに出力するなどの対応をお願いします。
@@ -2832,14 +2577,14 @@
     <rPh sb="134" eb="135">
       <t>ネガ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u11に書き換える</t>
@@ -2852,7 +2597,7 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>UI開発基盤</t>
@@ -2860,23 +2605,23 @@
   </si>
   <si>
     <t>Example</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0(5)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0(1.1.0)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>-(1.2.1)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>1.0.0(1.4.0)</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t xml:space="preserve">F-FMT-e05のコード例が、Stringの+についての記述の説明が、appendを使用している例だったため、+を使う例に修正しました。
@@ -2902,35 +2647,19 @@
     <rPh sb="62" eb="64">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3259,7 +2988,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -3271,7 +3000,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3308,7 +3037,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -3363,240 +3092,231 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="36">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
-    <cellStyle name="標準 2 2 2" xfId="4"/>
-    <cellStyle name="標準 2 2 2 2" xfId="9"/>
-    <cellStyle name="標準 2 2 2 2 2" xfId="17"/>
-    <cellStyle name="標準 2 2 2 2 2 2" xfId="19"/>
-    <cellStyle name="標準 2 2 2 2 3" xfId="20"/>
-    <cellStyle name="標準 2 2 2 3" xfId="13"/>
-    <cellStyle name="標準 2 2 2 3 2" xfId="21"/>
-    <cellStyle name="標準 2 2 2 4" xfId="22"/>
-    <cellStyle name="標準 2 2 3" xfId="7"/>
-    <cellStyle name="標準 2 2 3 2" xfId="15"/>
-    <cellStyle name="標準 2 2 3 2 2" xfId="23"/>
-    <cellStyle name="標準 2 2 3 3" xfId="24"/>
-    <cellStyle name="標準 2 2 4" xfId="11"/>
-    <cellStyle name="標準 2 2 4 2" xfId="25"/>
-    <cellStyle name="標準 2 2 5" xfId="26"/>
-    <cellStyle name="標準 2 3" xfId="3"/>
-    <cellStyle name="標準 2 3 2" xfId="8"/>
-    <cellStyle name="標準 2 3 2 2" xfId="16"/>
-    <cellStyle name="標準 2 3 2 2 2" xfId="27"/>
-    <cellStyle name="標準 2 3 2 3" xfId="28"/>
-    <cellStyle name="標準 2 3 3" xfId="12"/>
-    <cellStyle name="標準 2 3 3 2" xfId="29"/>
-    <cellStyle name="標準 2 3 4" xfId="30"/>
-    <cellStyle name="標準 2 4" xfId="6"/>
-    <cellStyle name="標準 2 4 2" xfId="14"/>
-    <cellStyle name="標準 2 4 2 2" xfId="31"/>
-    <cellStyle name="標準 2 4 3" xfId="32"/>
-    <cellStyle name="標準 2 5" xfId="10"/>
-    <cellStyle name="標準 2 5 2" xfId="33"/>
-    <cellStyle name="標準 2 6" xfId="34"/>
-    <cellStyle name="標準 3" xfId="5"/>
-    <cellStyle name="標準 4" xfId="18"/>
-    <cellStyle name="標準 5" xfId="35"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2 2 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2 2 2 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 2 2 2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準 2 2 2 2 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準 2 2 2 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準 2 2 2 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="標準 2 2 2 4" xfId="22" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="標準 2 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="標準 2 2 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="標準 2 2 3 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="標準 2 2 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="標準 2 2 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="標準 2 2 4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="標準 2 2 5" xfId="26" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="標準 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="標準 2 3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="標準 2 3 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="標準 2 3 2 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="標準 2 3 2 3" xfId="28" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="標準 2 3 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="標準 2 3 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="標準 2 3 4" xfId="30" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="標準 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="標準 2 4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="標準 2 4 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="標準 2 5" xfId="10" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="標準 2 5 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="標準 2 6" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="標準 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="標準 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="標準 5" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -3668,6 +3388,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3689,7 +3412,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3925,7 +3654,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3967,7 +3696,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4000,9 +3729,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4035,6 +3781,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4210,370 +3973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4584,12 +3984,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="31" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="31" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -4601,1804 +4001,1799 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:125" s="7" customFormat="1" ht="19.5">
-      <c r="A1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="D1" s="30"/>
+    <row r="1" spans="1:125" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
-    <row r="2" spans="1:125" s="8" customFormat="1" ht="19.5">
-      <c r="A2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+    <row r="2" spans="1:125" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:125" s="9" customFormat="1" ht="72" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="AO3" s="10"/>
-      <c r="DU3" s="11"/>
+    <row r="3" spans="1:125" s="6" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="AO3" s="7"/>
+      <c r="DU3" s="8"/>
     </row>
-    <row r="4" spans="1:125" s="2" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="N4" s="57" t="s">
-        <v>106</v>
+    <row r="4" spans="1:125" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+    <row r="5" spans="1:125" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
     </row>
-    <row r="6" spans="1:125" ht="21">
-      <c r="A6" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
+    <row r="6" spans="1:125" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:125" s="12" customFormat="1" ht="72">
-      <c r="A7" s="14"/>
-      <c r="B7" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="25">
+    <row r="7" spans="1:125" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A7" s="11"/>
+      <c r="B7" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M7" s="25">
+      <c r="H7" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="22">
         <v>15037</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="38"/>
+      <c r="N7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="35"/>
     </row>
-    <row r="8" spans="1:125" s="12" customFormat="1" ht="72">
-      <c r="A8" s="14"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="25">
+    <row r="8" spans="1:125" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A8" s="11"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="22">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="25">
+      <c r="D8" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="22">
         <v>15131</v>
       </c>
-      <c r="N8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" s="38"/>
+      <c r="N8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:125" s="12" customFormat="1" ht="192">
-      <c r="A9" s="14"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="25">
+    <row r="9" spans="1:125" s="9" customFormat="1" ht="192" x14ac:dyDescent="0.15">
+      <c r="A9" s="11"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="22">
         <f t="shared" ref="C9:C27" si="0">C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="M9" s="25">
+      <c r="D9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="22">
         <v>11660</v>
       </c>
-      <c r="N9" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" s="38"/>
+      <c r="N9" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="35"/>
     </row>
-    <row r="10" spans="1:125" s="12" customFormat="1" ht="72">
-      <c r="A10" s="14"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="25">
+    <row r="10" spans="1:125" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A10" s="11"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="K10" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="L10" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="25">
+      <c r="D10" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="22">
         <v>11660</v>
       </c>
-      <c r="N10" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="O10" s="38"/>
+      <c r="N10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" s="35"/>
     </row>
-    <row r="11" spans="1:125" s="12" customFormat="1" ht="60">
-      <c r="A11" s="14"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="25">
+    <row r="11" spans="1:125" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A11" s="11"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="M11" s="25">
+      <c r="E11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="22">
         <v>15130</v>
       </c>
-      <c r="N11" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" s="38"/>
+      <c r="N11" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:125" s="12" customFormat="1" ht="60">
-      <c r="A12" s="14"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="25">
+    <row r="12" spans="1:125" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A12" s="11"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="M12" s="25">
+      <c r="M12" s="22">
         <v>15154</v>
       </c>
-      <c r="N12" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="O12" s="38"/>
+      <c r="N12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:125" s="12" customFormat="1" ht="36">
-      <c r="A13" s="14"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="25">
+    <row r="13" spans="1:125" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A13" s="11"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K13" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M13" s="25">
+      <c r="D13" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="22">
         <v>15158</v>
       </c>
-      <c r="N13" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="O13" s="38"/>
+      <c r="N13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:125" s="12" customFormat="1" ht="84">
-      <c r="A14" s="14"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="25">
+    <row r="14" spans="1:125" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A14" s="11"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="25">
+      <c r="D14" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="22">
         <v>15160</v>
       </c>
-      <c r="N14" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="O14" s="38"/>
+      <c r="N14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" s="35"/>
     </row>
-    <row r="15" spans="1:125" s="12" customFormat="1" ht="72">
-      <c r="A15" s="14"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="25">
+    <row r="15" spans="1:125" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D15" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="M15" s="25">
+      <c r="D15" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M15" s="22">
         <v>15179</v>
       </c>
-      <c r="N15" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="O15" s="38"/>
+      <c r="N15" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="35"/>
     </row>
-    <row r="16" spans="1:125" s="12" customFormat="1" ht="72">
-      <c r="A16" s="14"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="25">
+    <row r="16" spans="1:125" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="25">
+      <c r="D16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="22">
         <v>15126</v>
       </c>
-      <c r="N16" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="O16" s="38"/>
+      <c r="N16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="35"/>
     </row>
-    <row r="17" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A17" s="14"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="25">
+    <row r="17" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="22">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D17" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="M17" s="25">
+      <c r="D17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="22">
         <v>10487</v>
       </c>
-      <c r="N17" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="O17" s="38"/>
+      <c r="N17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="35"/>
     </row>
-    <row r="18" spans="1:15" s="12" customFormat="1" ht="48">
-      <c r="A18" s="14"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="25">
+    <row r="18" spans="1:15" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="22">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="M18" s="25">
+      <c r="D18" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="22">
         <v>15099</v>
       </c>
-      <c r="N18" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="O18" s="38"/>
+      <c r="N18" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:15" s="12" customFormat="1" ht="48">
-      <c r="A19" s="14"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="25">
+    <row r="19" spans="1:15" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="22">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>278</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="25">
+      <c r="D19" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="22">
         <v>15153</v>
       </c>
-      <c r="N19" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="O19" s="38"/>
+      <c r="N19" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="O19" s="35"/>
     </row>
-    <row r="20" spans="1:15" s="12" customFormat="1" ht="48">
-      <c r="A20" s="14"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="25">
+    <row r="20" spans="1:15" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="22">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="25">
+      <c r="D20" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" s="22">
         <v>15182</v>
       </c>
-      <c r="N20" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="O20" s="38"/>
+      <c r="N20" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="O20" s="35"/>
     </row>
-    <row r="21" spans="1:15" s="12" customFormat="1" ht="84">
-      <c r="A21" s="14"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="25">
+    <row r="21" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="22">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="O21" s="38"/>
+      <c r="D21" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" s="35"/>
     </row>
-    <row r="22" spans="1:15" s="12" customFormat="1" ht="48">
-      <c r="A22" s="14"/>
-      <c r="B22" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="25">
+    <row r="22" spans="1:15" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="22">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D22" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>263</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="J22" s="25" t="s">
+      <c r="D22" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="M22" s="25">
+      <c r="I22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" s="22">
         <v>15132</v>
       </c>
-      <c r="N22" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="O22" s="38"/>
+      <c r="N22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O22" s="35"/>
     </row>
-    <row r="23" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A23" s="14"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="25">
+    <row r="23" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="22">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>297</v>
-      </c>
-      <c r="M23" s="25">
+      <c r="D23" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" s="22">
         <v>15148</v>
       </c>
-      <c r="N23" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="O23" s="38"/>
+      <c r="N23" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="35"/>
     </row>
-    <row r="24" spans="1:15" s="12" customFormat="1" ht="156">
-      <c r="A24" s="14"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="25">
+    <row r="24" spans="1:15" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D24" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="M24" s="25">
+      <c r="D24" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" s="22">
         <v>15154</v>
       </c>
-      <c r="N24" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="O24" s="38"/>
+      <c r="N24" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" s="35"/>
     </row>
-    <row r="25" spans="1:15" s="12" customFormat="1" ht="72">
-      <c r="A25" s="14"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="25">
+    <row r="25" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="M25" s="25">
+      <c r="D25" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M25" s="22">
         <v>15159</v>
       </c>
-      <c r="N25" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="O25" s="38"/>
+      <c r="N25" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="35"/>
     </row>
-    <row r="26" spans="1:15" s="12" customFormat="1" ht="72">
-      <c r="A26" s="14"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="25">
+    <row r="26" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D26" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="M26" s="25">
+      <c r="D26" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M26" s="22">
         <v>13133</v>
       </c>
-      <c r="N26" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="O26" s="38"/>
+      <c r="N26" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="O26" s="35"/>
     </row>
-    <row r="27" spans="1:15" s="12" customFormat="1" ht="72">
-      <c r="A27" s="14"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="25">
+    <row r="27" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D27" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="L27" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="M27" s="25">
+      <c r="D27" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" s="22">
         <v>11286</v>
       </c>
-      <c r="N27" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="O27" s="38"/>
+      <c r="N27" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="O27" s="35"/>
     </row>
-    <row r="28" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A28" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="38"/>
+    <row r="28" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A28" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="35"/>
     </row>
-    <row r="29" spans="1:15" s="12" customFormat="1" ht="84">
-      <c r="A29" s="14"/>
-      <c r="B29" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="25">
+    <row r="29" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
+      <c r="B29" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="22">
         <f>C27+1</f>
         <v>22</v>
       </c>
-      <c r="D29" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L29" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="M29" s="25">
+      <c r="D29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="22">
         <v>15098</v>
       </c>
-      <c r="N29" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="O29" s="38"/>
+      <c r="N29" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="35"/>
     </row>
-    <row r="30" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A30" s="14"/>
-      <c r="B30" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="25">
+    <row r="30" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
+      <c r="B30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="22">
         <f>C29+1</f>
         <v>23</v>
       </c>
-      <c r="D30" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K30" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="M30" s="25">
+      <c r="D30" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="M30" s="22">
         <v>15097</v>
       </c>
-      <c r="N30" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="O30" s="38"/>
+      <c r="N30" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" s="35"/>
     </row>
-    <row r="31" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A31" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="38"/>
+    <row r="31" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A31" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="35"/>
     </row>
-    <row r="32" spans="1:15" s="12" customFormat="1" ht="36">
-      <c r="A32" s="14"/>
-      <c r="B32" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="25">
+    <row r="32" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
+      <c r="B32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="22">
         <f>C30+1</f>
         <v>24</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="M32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="O32" s="38"/>
+      <c r="D32" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O32" s="35"/>
     </row>
-    <row r="33" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A33" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="38"/>
+    <row r="33" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A33" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="35"/>
     </row>
-    <row r="34" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A34" s="14"/>
-      <c r="B34" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="25">
+    <row r="34" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
+      <c r="B34" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="22">
         <f>C32+1</f>
         <v>25</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="25" t="s">
+      <c r="D34" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" s="25">
+      <c r="I34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="22">
         <v>15154</v>
       </c>
-      <c r="N34" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="O34" s="38"/>
+      <c r="N34" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O34" s="35"/>
     </row>
-    <row r="35" spans="1:15" s="12" customFormat="1" ht="120">
-      <c r="A35" s="14"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="25">
+    <row r="35" spans="1:15" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="22">
         <f>C34+1</f>
         <v>26</v>
       </c>
-      <c r="D35" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>285</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>275</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="M35" s="25">
+      <c r="D35" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M35" s="22">
         <v>15200</v>
       </c>
-      <c r="N35" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="O35" s="38"/>
+      <c r="N35" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O35" s="35"/>
     </row>
-    <row r="36" spans="1:15" s="12" customFormat="1" ht="72">
-      <c r="A36" s="14"/>
-      <c r="B36" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="25">
+    <row r="36" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
+      <c r="B36" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="22">
         <f>C35+1</f>
         <v>27</v>
       </c>
-      <c r="D36" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F36" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="M36" s="25">
+      <c r="D36" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M36" s="22">
         <v>15194</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="O36" s="38"/>
+      <c r="N36" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O36" s="35"/>
     </row>
-    <row r="37" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A37" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="38"/>
+    <row r="37" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A37" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="35"/>
     </row>
-    <row r="38" spans="1:15" s="12" customFormat="1" ht="48">
-      <c r="A38" s="14"/>
-      <c r="B38" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="25">
+    <row r="38" spans="1:15" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="22">
         <f>C36+1</f>
         <v>28</v>
       </c>
-      <c r="D38" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="M38" s="25">
+      <c r="D38" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M38" s="22">
         <v>15104</v>
       </c>
-      <c r="N38" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="O38" s="38"/>
+      <c r="N38" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="O38" s="35"/>
     </row>
-    <row r="39" spans="1:15" s="12" customFormat="1" ht="84">
-      <c r="A39" s="14"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="25">
+    <row r="39" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="22">
         <f>C38+1</f>
         <v>29</v>
       </c>
-      <c r="D39" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L39" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="M39" s="25">
+      <c r="D39" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" s="22">
         <v>15104</v>
       </c>
-      <c r="N39" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="O39" s="38"/>
+      <c r="N39" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="O39" s="35"/>
     </row>
-    <row r="40" spans="1:15" s="12" customFormat="1" ht="24">
-      <c r="A40" s="14"/>
-      <c r="B40" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="25">
+    <row r="40" spans="1:15" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
+      <c r="B40" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="22">
         <f t="shared" ref="C40:C42" si="1">C39+1</f>
         <v>30</v>
       </c>
-      <c r="D40" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J40" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L40" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="M40" s="25">
+      <c r="D40" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L40" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M40" s="22">
         <v>15104</v>
       </c>
-      <c r="N40" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="O40" s="38"/>
+      <c r="N40" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="O40" s="35"/>
     </row>
-    <row r="41" spans="1:15" s="12" customFormat="1" ht="72">
-      <c r="A41" s="14"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="25">
+    <row r="41" spans="1:15" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="22">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="D41" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J41" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L41" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M41" s="25">
+      <c r="D41" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="22">
         <v>15171</v>
       </c>
-      <c r="N41" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="O41" s="38"/>
+      <c r="N41" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="O41" s="35"/>
     </row>
-    <row r="42" spans="1:15" s="12" customFormat="1" ht="60">
-      <c r="A42" s="14"/>
-      <c r="B42" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="25">
+    <row r="42" spans="1:15" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
+      <c r="B42" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="22">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="G42" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K42" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="O42" s="38"/>
+      <c r="D42" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O42" s="35"/>
     </row>
-    <row r="43" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A43" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="38"/>
+    <row r="43" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A43" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="35"/>
     </row>
-    <row r="44" spans="1:15" s="12" customFormat="1" ht="48">
-      <c r="A44" s="14"/>
-      <c r="B44" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="25">
+    <row r="44" spans="1:15" s="9" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A44" s="11"/>
+      <c r="B44" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="22">
         <f>C42+1</f>
         <v>33</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L44" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="M44" s="25">
+      <c r="D44" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M44" s="22">
         <v>14737</v>
       </c>
-      <c r="N44" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="O44" s="38"/>
+      <c r="N44" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O44" s="35"/>
     </row>
-    <row r="45" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A45" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="38"/>
+    <row r="45" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A45" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="35"/>
     </row>
-    <row r="46" spans="1:15" s="12" customFormat="1" ht="108">
-      <c r="A46" s="14"/>
-      <c r="B46" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="25">
+    <row r="46" spans="1:15" s="9" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="22">
         <f>C44+1</f>
         <v>34</v>
       </c>
-      <c r="D46" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="K46" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="L46" s="25" t="s">
+      <c r="D46" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="M46" s="25">
+      <c r="H46" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="22">
         <v>15147</v>
       </c>
-      <c r="N46" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="O46" s="38"/>
+      <c r="N46" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O46" s="35"/>
     </row>
-    <row r="47" spans="1:15" s="12" customFormat="1" ht="84">
-      <c r="A47" s="14"/>
-      <c r="B47" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="25">
+    <row r="47" spans="1:15" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="22">
         <f>C46+1</f>
         <v>35</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F47" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="K47" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L47" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="M47" s="25">
+      <c r="D47" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M47" s="22">
         <v>15094</v>
       </c>
-      <c r="N47" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="O47" s="38"/>
+      <c r="N47" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="O47" s="35"/>
     </row>
-    <row r="48" spans="1:15" s="12" customFormat="1" ht="21">
-      <c r="A48" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="38"/>
+    <row r="48" spans="1:15" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A48" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="35"/>
     </row>
-    <row r="49" spans="1:15" s="12" customFormat="1" ht="36">
-      <c r="A49" s="42"/>
-      <c r="B49" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="25">
+    <row r="49" spans="1:15" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A49" s="39"/>
+      <c r="B49" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="22">
         <f>C47+1</f>
         <v>36</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="J49" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K49" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="L49" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M49" s="25">
+      <c r="D49" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="22">
         <v>15016</v>
       </c>
-      <c r="N49" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="O49" s="38"/>
+      <c r="N49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:N49">
+  <autoFilter ref="A4:N49" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <filterColumn colId="0" showButton="0"/>
   </autoFilter>
-  <sortState ref="C8:O16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C8:O16">
     <sortCondition descending="1" ref="L8:L16"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -6407,8 +5802,13 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="7"/>
   <conditionalFormatting sqref="G48">
     <cfRule type="expression" dxfId="7" priority="10">
       <formula>#REF!="完了"</formula>
@@ -6458,8 +5858,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6467,99 +5867,99 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="3.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="3.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>72</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="16"/>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="C5" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
